--- a/Average_time.xlsx
+++ b/Average_time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.kuzmin\Desktop\Показать\Длинный продув\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Работа\Репы гитхаб\Рабочие проекты\Проекты, которые уже буду закидывать (Без мусора)\long_blowing\long_blowing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A215BA-27A1-4F89-AD5D-F983D597A071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15209FEC-7948-4396-8D63-83ADB17230CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="До" sheetId="2" r:id="rId1"/>
@@ -511,16 +511,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2391,7 +2390,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B1" t="s">
@@ -2415,19 +2414,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>130.56451612903226</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
         <v>2801</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2436,19 +2435,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>124.38138479001135</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
         <v>4843</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2457,19 +2456,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>117.14728682170542</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4">
         <v>2800</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2478,19 +2477,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>111.74875621890547</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5">
         <v>1966</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2499,19 +2498,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>144.24137931034483</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6">
         <v>4903</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2520,19 +2519,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>115.47132616487455</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7">
         <v>1967</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2541,19 +2540,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>133.33701657458565</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8">
         <v>2799</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2562,19 +2561,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>127.95555555555555</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9">
         <v>1965</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2583,19 +2582,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>151.53488372093022</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10">
         <v>1914</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2604,19 +2603,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>117.64634146341463</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
       <c r="C11">
         <v>2802</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2625,19 +2624,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>151.53488372093022</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>36</v>
       </c>
       <c r="C12">
         <v>1914</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2646,19 +2645,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>139.25735294117646</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
         <v>1955</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2667,19 +2666,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>165</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14">
         <v>6096</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2688,19 +2687,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>151.53488372093022</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="C15">
         <v>1914</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2709,19 +2708,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>143.6206896551724</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
       <c r="C16">
         <v>2803</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2730,19 +2729,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>137.22972972972974</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
       <c r="C17">
         <v>1968</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2751,19 +2750,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>139.37912087912088</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>50</v>
       </c>
       <c r="C18">
         <v>1913</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2772,19 +2771,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>117.93236714975845</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>52</v>
       </c>
       <c r="C19">
         <v>1958</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2793,19 +2792,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>119.95121951219512</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>54</v>
       </c>
       <c r="C20">
         <v>6190</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2814,19 +2813,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>119.95121951219512</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>56</v>
       </c>
       <c r="C21">
         <v>6450</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2835,19 +2834,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>136.47150259067357</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>58</v>
       </c>
       <c r="C22">
         <v>1952</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2856,19 +2855,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>117.52204176334106</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>61</v>
       </c>
       <c r="C23">
         <v>1969</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2877,19 +2876,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>121.49128919860627</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>63</v>
       </c>
       <c r="C24">
         <v>6423</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2898,19 +2897,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>138.16732283464566</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>65</v>
       </c>
       <c r="C25">
         <v>1951</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2919,19 +2918,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>121.29918699186992</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>67</v>
       </c>
       <c r="C26">
         <v>4975</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2940,19 +2939,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>150.42512077294685</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>69</v>
       </c>
       <c r="C27">
         <v>2804</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2961,19 +2960,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>118.92244897959183</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>72</v>
       </c>
       <c r="C28">
         <v>1959</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2982,19 +2981,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>139.37912087912088</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>74</v>
       </c>
       <c r="C29">
         <v>6403</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3003,19 +3002,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>115.49802371541502</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>76</v>
       </c>
       <c r="C30">
         <v>5571</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3024,19 +3023,19 @@
         <f>VLOOKUP(до_всего_без_шуток[[#This Row],[Column3]],После!$A$1:$G$28,2,0)</f>
         <v>121.49128919860627</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>79</v>
       </c>
       <c r="C31">
         <v>6092</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3052,8 +3051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2FEF8A-65C4-4B89-BC12-17DEED7A10D8}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3086,624 +3085,624 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>81</v>
       </c>
       <c r="C2">
         <v>6403</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>82</v>
       </c>
       <c r="C3">
         <v>2802</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>83</v>
       </c>
       <c r="C4">
         <v>2801</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
+      <c r="E4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>84</v>
       </c>
       <c r="C5">
         <v>1955</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>85</v>
       </c>
       <c r="C6">
         <v>4843</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>86</v>
       </c>
       <c r="C7">
         <v>6493</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
+      <c r="E7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>87</v>
       </c>
       <c r="C8">
         <v>2803</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>9</v>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>88</v>
       </c>
       <c r="C9">
         <v>6096</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>89</v>
       </c>
       <c r="C10">
         <v>2800</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>90</v>
       </c>
       <c r="C11">
         <v>1966</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>91</v>
       </c>
       <c r="C12">
         <v>1968</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>92</v>
       </c>
       <c r="C13">
         <v>6494</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>94</v>
       </c>
       <c r="C14">
         <v>1967</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>95</v>
       </c>
       <c r="C15">
         <v>4903</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>96</v>
       </c>
       <c r="C16">
         <v>1958</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>13</v>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>97</v>
       </c>
       <c r="C17">
         <v>1952</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
+      <c r="E17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>98</v>
       </c>
       <c r="C18">
         <v>6450</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>13</v>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>99</v>
       </c>
       <c r="C19">
         <v>1951</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>13</v>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>100</v>
       </c>
       <c r="C20">
         <v>1965</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>13</v>
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>101</v>
       </c>
       <c r="C21">
         <v>1969</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>102</v>
       </c>
       <c r="C22">
         <v>2799</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>9</v>
+      <c r="E22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
       <c r="C23">
         <v>1959</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>13</v>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>104</v>
       </c>
       <c r="C24">
         <v>2804</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>9</v>
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>105</v>
       </c>
       <c r="C25">
         <v>4975</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>13</v>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>106</v>
       </c>
       <c r="C26">
         <v>5571</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>13</v>
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>107</v>
       </c>
       <c r="C27">
         <v>6423</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>13</v>
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>108</v>
       </c>
       <c r="C28">
         <v>1914</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>13</v>
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3718,8 +3717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="83" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView zoomScale="83" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3731,7 +3730,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B1" t="s">
@@ -3754,19 +3753,19 @@
       <c r="A2" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
         <v>2801</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3774,19 +3773,19 @@
       <c r="A3" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
         <v>4843</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3794,19 +3793,19 @@
       <c r="A4" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4">
         <v>2800</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3814,19 +3813,19 @@
       <c r="A5" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5">
         <v>1966</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3834,19 +3833,19 @@
       <c r="A6" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6">
         <v>4903</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3854,19 +3853,19 @@
       <c r="A7" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7">
         <v>1967</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3874,19 +3873,19 @@
       <c r="A8" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8">
         <v>2799</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3894,19 +3893,19 @@
       <c r="A9" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9">
         <v>1965</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3914,19 +3913,19 @@
       <c r="A10" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10">
         <v>1914</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3934,19 +3933,19 @@
       <c r="A11" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
       <c r="C11">
         <v>2802</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3954,19 +3953,19 @@
       <c r="A12" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>36</v>
       </c>
       <c r="C12">
         <v>1914</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3974,19 +3973,19 @@
       <c r="A13" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
         <v>1955</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3994,19 +3993,19 @@
       <c r="A14" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14">
         <v>6096</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4014,19 +4013,19 @@
       <c r="A15" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="C15">
         <v>1914</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4034,19 +4033,19 @@
       <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
       <c r="C16">
         <v>2803</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4054,19 +4053,19 @@
       <c r="A17" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
       <c r="C17">
         <v>1968</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4074,19 +4073,19 @@
       <c r="A18" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>50</v>
       </c>
       <c r="C18">
         <v>1913</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4094,19 +4093,19 @@
       <c r="A19" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>52</v>
       </c>
       <c r="C19">
         <v>1958</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4114,19 +4113,19 @@
       <c r="A20" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>54</v>
       </c>
       <c r="C20">
         <v>6190</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4134,19 +4133,19 @@
       <c r="A21" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>56</v>
       </c>
       <c r="C21">
         <v>6450</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4154,19 +4153,19 @@
       <c r="A22" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>58</v>
       </c>
       <c r="C22">
         <v>1952</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4174,19 +4173,19 @@
       <c r="A23" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>61</v>
       </c>
       <c r="C23">
         <v>1969</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4194,19 +4193,19 @@
       <c r="A24" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>63</v>
       </c>
       <c r="C24">
         <v>6423</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4214,19 +4213,19 @@
       <c r="A25" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>65</v>
       </c>
       <c r="C25">
         <v>1951</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4234,19 +4233,19 @@
       <c r="A26" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>67</v>
       </c>
       <c r="C26">
         <v>4975</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4254,19 +4253,19 @@
       <c r="A27" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>69</v>
       </c>
       <c r="C27">
         <v>2804</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4274,19 +4273,19 @@
       <c r="A28" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>72</v>
       </c>
       <c r="C28">
         <v>1959</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4294,19 +4293,19 @@
       <c r="A29" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>74</v>
       </c>
       <c r="C29">
         <v>6403</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="E29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4314,19 +4313,19 @@
       <c r="A30" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>76</v>
       </c>
       <c r="C30">
         <v>5571</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="E30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" t="s">
         <v>116</v>
       </c>
       <c r="O30">
@@ -4338,111 +4337,111 @@
       <c r="A31" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>79</v>
       </c>
       <c r="C31">
         <v>6092</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="E31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O38" s="4" t="s">
+      <c r="O38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="P38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="Q38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R38" s="3" t="s">
+      <c r="R38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="S38" s="4" t="s">
+      <c r="S38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="T38" s="3" t="s">
+      <c r="T38" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="U38" s="4" t="s">
+      <c r="U38" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V38" s="3" t="s">
+      <c r="V38" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W38" s="4" t="s">
+      <c r="W38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X38" s="3" t="s">
+      <c r="X38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Y38" s="4" t="s">
+      <c r="Y38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Z38" s="3" t="s">
+      <c r="Z38" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AA38" s="4" t="s">
+      <c r="AA38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AB38" s="3" t="s">
+      <c r="AB38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AC38" s="4" t="s">
+      <c r="AC38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AD38" s="3" t="s">
+      <c r="AD38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AE38" s="4" t="s">
+      <c r="AE38" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4450,94 +4449,94 @@
       <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>135.26027397260199</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>125.743346007604</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>122.618055555555</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <v>99.490566037735803</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>122.945945945945</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="7">
         <v>117.909926470588</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <v>122.338709677419</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="7">
         <v>117.226356589147</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="6">
         <v>137.91304347825999</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="7">
         <v>135.35820895522301</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="6">
         <v>143.32191780821901</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="7">
         <v>129.977611940298</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="4">
         <v>99</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="5">
         <v>183</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="6">
         <v>126.14423076923001</v>
       </c>
-      <c r="Q39" s="8">
+      <c r="Q39" s="7">
         <v>125.326860841423</v>
       </c>
-      <c r="R39" s="5">
+      <c r="R39" s="4">
         <v>142</v>
       </c>
-      <c r="S39" s="8">
+      <c r="S39" s="7">
         <v>117.938411669367</v>
       </c>
-      <c r="T39" s="7">
+      <c r="T39" s="6">
         <v>112.864583333333</v>
       </c>
-      <c r="U39" s="8">
+      <c r="U39" s="7">
         <v>109.08530805687199</v>
       </c>
-      <c r="V39" s="7">
+      <c r="V39" s="6">
         <v>134.637149028077</v>
       </c>
-      <c r="W39" s="8">
+      <c r="W39" s="7">
         <v>120.94314868804599</v>
       </c>
-      <c r="X39" s="7">
+      <c r="X39" s="6">
         <v>120.741463414634</v>
       </c>
-      <c r="Y39" s="8">
+      <c r="Y39" s="7">
         <v>122.55965909090899</v>
       </c>
-      <c r="Z39" s="7">
+      <c r="Z39" s="6">
         <v>105.260429835651</v>
       </c>
-      <c r="AA39" s="8">
+      <c r="AA39" s="7">
         <v>145.22580645161199</v>
       </c>
-      <c r="AB39" s="7">
+      <c r="AB39" s="6">
         <v>116.453686200378</v>
       </c>
-      <c r="AC39" s="6">
+      <c r="AC39" s="5">
         <v>150</v>
       </c>
-      <c r="AD39" s="7">
+      <c r="AD39" s="6">
         <v>105.19540229885</v>
       </c>
-      <c r="AE39" s="8">
+      <c r="AE39" s="7">
         <v>113.351648351648</v>
       </c>
       <c r="AG39">
@@ -4549,242 +4548,242 @@
       <c r="A40" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>130.564516129032</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>124.381384790011</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>117.14728682170499</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>111.748756218905</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <v>144.241379310344</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <v>115.471326164874</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="8">
         <v>133.33701657458499</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="8">
         <v>127.95555555555499</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="8">
         <v>151.53488372093</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="8">
         <v>117.646341463414</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="8">
         <v>151.53488372093</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="8">
         <v>139.25735294117601</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40">
         <v>165</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O40" s="8">
         <v>151.53488372093</v>
       </c>
-      <c r="P40" s="9">
+      <c r="P40" s="8">
         <v>143.62068965517199</v>
       </c>
-      <c r="Q40" s="9">
+      <c r="Q40" s="8">
         <v>137.229729729729</v>
       </c>
-      <c r="R40" s="9">
+      <c r="R40" s="8">
         <v>139.37912087911999</v>
       </c>
-      <c r="S40" s="9">
+      <c r="S40" s="8">
         <v>117.93236714975799</v>
       </c>
-      <c r="T40" s="9">
+      <c r="T40" s="8">
         <v>119.951219512195</v>
       </c>
-      <c r="U40" s="9">
+      <c r="U40" s="8">
         <v>119.951219512195</v>
       </c>
-      <c r="V40" s="9">
+      <c r="V40" s="8">
         <v>136.471502590673</v>
       </c>
-      <c r="W40" s="9">
+      <c r="W40" s="8">
         <v>117.52204176334099</v>
       </c>
-      <c r="X40" s="9">
+      <c r="X40" s="8">
         <v>121.491289198606</v>
       </c>
-      <c r="Y40" s="9">
+      <c r="Y40" s="8">
         <v>138.16732283464501</v>
       </c>
-      <c r="Z40" s="9">
+      <c r="Z40" s="8">
         <v>121.29918699186901</v>
       </c>
-      <c r="AA40" s="9">
+      <c r="AA40" s="8">
         <v>150.425120772946</v>
       </c>
-      <c r="AB40" s="9">
+      <c r="AB40" s="8">
         <v>118.922448979591</v>
       </c>
-      <c r="AC40" s="9">
+      <c r="AC40" s="8">
         <v>139.37912087911999</v>
       </c>
-      <c r="AD40" s="9">
+      <c r="AD40" s="8">
         <v>115.498023715415</v>
       </c>
-      <c r="AE40" s="9">
+      <c r="AE40" s="8">
         <v>121.491289198606</v>
       </c>
       <c r="AG40">
         <f>AVERAGE(A40:AE40)</f>
         <v>131.33624201651241</v>
       </c>
-      <c r="AI40" s="13">
+      <c r="AI40" s="12">
         <f>(AG40-AG39)/AG39</f>
         <v>4.7942440510610772E-2</v>
       </c>
-      <c r="AM40" s="10">
+      <c r="AM40" s="9">
         <f>SUM(B41:AE41)/COUNT(B41:AE41)</f>
         <v>5.876538019172655E-2</v>
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <f>(B40-B39)/B39</f>
         <v>-3.4716459649646689E-2</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <f t="shared" ref="C41:AC41" si="0">(C40-C39)/C39</f>
         <v>-1.0831278638876405E-2</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <f t="shared" si="0"/>
         <v>-4.4616338997247817E-2</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="9">
         <f>(E40-E39)/E39</f>
         <v>0.1232095732224479</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="9">
         <f t="shared" si="0"/>
         <v>0.17320972400148807</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="9">
         <f t="shared" si="0"/>
         <v>-2.0681891497254898E-2</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="9">
         <f t="shared" si="0"/>
         <v>8.9900465079010325E-2</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="9">
         <f t="shared" si="0"/>
         <v>9.1525483505484284E-2</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="9">
         <f t="shared" si="0"/>
         <v>9.8771224962614146E-2</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="9">
         <f t="shared" si="0"/>
         <v>-0.13085181629189666</v>
       </c>
-      <c r="L41" s="10">
+      <c r="L41" s="9">
         <f t="shared" si="0"/>
         <v>5.730432608151996E-2</v>
       </c>
-      <c r="M41" s="10">
+      <c r="M41" s="9">
         <f t="shared" si="0"/>
         <v>7.1394918419800044E-2</v>
       </c>
-      <c r="N41" s="10">
+      <c r="N41" s="9">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O41" s="10">
+      <c r="O41" s="9">
         <f t="shared" si="0"/>
         <v>-0.17194052611513663</v>
       </c>
-      <c r="P41" s="10">
+      <c r="P41" s="9">
         <f t="shared" si="0"/>
         <v>0.13854346551855912</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="Q41" s="9">
         <f t="shared" si="0"/>
         <v>9.4974603276521782E-2</v>
       </c>
-      <c r="R41" s="10">
+      <c r="R41" s="9">
         <f t="shared" si="0"/>
         <v>-1.8456895217464825E-2</v>
       </c>
-      <c r="S41" s="10">
+      <c r="S41" s="9">
         <f t="shared" si="0"/>
         <v>-5.125149239716061E-5</v>
       </c>
-      <c r="T41" s="10">
+      <c r="T41" s="9">
         <f t="shared" si="0"/>
         <v>6.2788839240494082E-2</v>
       </c>
-      <c r="U41" s="10">
+      <c r="U41" s="9">
         <f t="shared" si="0"/>
         <v>9.9609302562156415E-2</v>
       </c>
-      <c r="V41" s="10">
+      <c r="V41" s="9">
         <f t="shared" si="0"/>
         <v>1.3624423688691299E-2</v>
       </c>
-      <c r="W41" s="10">
+      <c r="W41" s="9">
         <f>(W40-W39)/W39</f>
         <v>-2.8286901422826461E-2</v>
       </c>
-      <c r="X41" s="10">
+      <c r="X41" s="9">
         <f t="shared" si="0"/>
         <v>6.2101763782425714E-3</v>
       </c>
-      <c r="Y41" s="10">
+      <c r="Y41" s="9">
         <f t="shared" si="0"/>
         <v>0.12734748007220698</v>
       </c>
-      <c r="Z41" s="10">
+      <c r="Z41" s="9">
         <f t="shared" si="0"/>
         <v>0.15237214194603063</v>
       </c>
-      <c r="AA41" s="10">
+      <c r="AA41" s="9">
         <f t="shared" si="0"/>
         <v>3.5801586841704904E-2</v>
       </c>
-      <c r="AB41" s="10">
+      <c r="AB41" s="9">
         <f t="shared" si="0"/>
         <v>2.1199524547166983E-2</v>
       </c>
-      <c r="AC41" s="10">
+      <c r="AC41" s="9">
         <f t="shared" si="0"/>
         <v>-7.0805860805866705E-2</v>
       </c>
-      <c r="AD41" s="10">
+      <c r="AD41" s="9">
         <f>(AD40-AD39)/AD39</f>
         <v>9.7937943973028865E-2</v>
       </c>
-      <c r="AE41" s="10">
+      <c r="AE41" s="9">
         <f>(AE40-AE39)/AE39</f>
         <v>7.1808755896575913E-2</v>
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="AK42" s="10">
+      <c r="AK42" s="9">
         <f>AM40-AI40</f>
         <v>1.0822939681115779E-2</v>
       </c>
     </row>
     <row r="43" spans="1:39" ht="21" x14ac:dyDescent="0.4">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <f>AVERAGE(B41:AE41)</f>
         <v>5.876538019172655E-2</v>
       </c>
